--- a/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/kayser_css_comparison_data_2022_12_22_v1.xlsx
+++ b/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/kayser_css_comparison_data_2022_12_22_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\8.0_css_comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\9.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802E216C-FC6E-42BD-A98B-28C39CF7C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50086D-3028-4275-85F8-8AB04E8B3700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
   </bookViews>
   <sheets>
     <sheet name="kayser (flow+time)" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,18 +177,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2209,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736FB9B-CB38-4C95-8CD4-288B065D8CBF}">
   <dimension ref="C4:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="C5:D10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2426,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C9E55D-F5B6-48CB-BCDE-74F8ACAD2118}">
-  <dimension ref="C4:H16"/>
+  <dimension ref="C4:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2621,6 +2631,12 @@
         <v>34.305900000000001</v>
       </c>
     </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="5">
+        <f>('kayser (flow+time)'!D18-'kayser (flow+event)'!D16)/'kayser (flow+time)'!D18</f>
+        <v>0.31828147052993511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2631,7 +2647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FAD013-A2F7-42D1-AF99-AD6B29236AE0}">
   <dimension ref="C4:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
